--- a/xlsx/拉丁语_intext.xlsx
+++ b/xlsx/拉丁语_intext.xlsx
@@ -29,7 +29,7 @@
     <t>罗马斗兽场</t>
   </si>
   <si>
-    <t>政策_政策_加州_拉丁语</t>
+    <t>体育运动_体育运动_传统_拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -10637,7 +10637,7 @@
         <v>466</v>
       </c>
       <c r="G249" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10666,7 +10666,7 @@
         <v>468</v>
       </c>
       <c r="G250" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10695,7 +10695,7 @@
         <v>470</v>
       </c>
       <c r="G251" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10753,7 +10753,7 @@
         <v>474</v>
       </c>
       <c r="G253" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10869,7 +10869,7 @@
         <v>482</v>
       </c>
       <c r="G257" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -11014,7 +11014,7 @@
         <v>492</v>
       </c>
       <c r="G262" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -11072,7 +11072,7 @@
         <v>496</v>
       </c>
       <c r="G264" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11101,7 +11101,7 @@
         <v>498</v>
       </c>
       <c r="G265" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11188,7 +11188,7 @@
         <v>504</v>
       </c>
       <c r="G268" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
